--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.041521.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.041521.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1653,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2223,12 +2223,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2299,12 +2299,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2945,12 +2945,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3439,12 +3439,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3743,12 +3743,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3933,12 +3933,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4047,12 +4047,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4085,12 +4085,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4465,12 +4465,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4807,12 +4807,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4845,12 +4845,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5187,12 +5187,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5339,12 +5339,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5529,12 +5529,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5605,12 +5605,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5719,12 +5719,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5757,12 +5757,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5947,12 +5947,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6061,12 +6061,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6213,12 +6213,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6289,12 +6289,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6479,12 +6479,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6517,12 +6517,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6857,12 +6857,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7123,12 +7123,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7199,12 +7199,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7275,12 +7275,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7465,12 +7465,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7579,12 +7579,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7655,12 +7655,12 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7921,12 +7921,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8111,12 +8111,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8187,12 +8187,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8567,12 +8567,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8947,12 +8947,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9099,12 +9099,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9137,12 +9137,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9591,12 +9591,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9667,12 +9667,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10465,12 +10465,12 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10579,12 +10579,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10849,12 +10849,12 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10887,12 +10887,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10925,12 +10925,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11229,12 +11229,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11533,12 +11533,12 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11609,12 +11609,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12141,12 +12141,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12217,12 +12217,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -12297,12 +12297,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12415,12 +12415,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13099,12 +13099,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13365,12 +13365,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13745,12 +13745,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14243,12 +14243,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14703,12 +14703,12 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15045,12 +15045,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15273,12 +15273,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15577,12 +15577,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16833,12 +16833,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16909,12 +16909,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17555,12 +17555,12 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18581,12 +18581,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18619,12 +18619,12 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18695,12 +18695,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18733,12 +18733,12 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18885,12 +18885,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19265,12 +19265,12 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19911,12 +19911,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19949,12 +19949,12 @@
       <c r="H513" t="inlineStr"/>
       <c r="I513" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20101,12 +20101,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20291,12 +20291,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20671,12 +20671,12 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20785,12 +20785,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21051,12 +21051,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21127,12 +21127,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21165,12 +21165,12 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21241,12 +21241,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21431,12 +21431,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21507,12 +21507,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21545,12 +21545,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21659,12 +21659,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21811,12 +21811,12 @@
       <c r="H562" t="inlineStr"/>
       <c r="I562" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22153,12 +22153,12 @@
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22461,12 +22461,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22689,12 +22689,12 @@
       <c r="H585" t="inlineStr"/>
       <c r="I585" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22917,12 +22917,12 @@
       <c r="H591" t="inlineStr"/>
       <c r="I591" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23225,12 +23225,12 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23263,12 +23263,12 @@
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23339,12 +23339,12 @@
       <c r="H602" t="inlineStr"/>
       <c r="I602" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23415,12 +23415,12 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23681,12 +23681,12 @@
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24179,12 +24179,12 @@
       <c r="H624" t="inlineStr"/>
       <c r="I624" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24217,12 +24217,12 @@
       <c r="H625" t="inlineStr"/>
       <c r="I625" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24483,12 +24483,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24521,12 +24521,12 @@
       <c r="H633" t="inlineStr"/>
       <c r="I633" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24787,12 +24787,12 @@
       <c r="H640" t="inlineStr"/>
       <c r="I640" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25205,12 +25205,12 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25357,12 +25357,12 @@
       <c r="H655" t="inlineStr"/>
       <c r="I655" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25737,12 +25737,12 @@
       <c r="H665" t="inlineStr"/>
       <c r="I665" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25817,12 +25817,12 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26163,12 +26163,12 @@
       <c r="H676" t="inlineStr"/>
       <c r="I676" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26505,12 +26505,12 @@
       <c r="H685" t="inlineStr"/>
       <c r="I685" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27155,12 +27155,12 @@
       <c r="H702" t="inlineStr"/>
       <c r="I702" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27459,12 +27459,12 @@
       <c r="H710" t="inlineStr"/>
       <c r="I710" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27573,12 +27573,12 @@
       <c r="H713" t="inlineStr"/>
       <c r="I713" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27649,12 +27649,12 @@
       <c r="H715" t="inlineStr"/>
       <c r="I715" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27687,12 +27687,12 @@
       <c r="H716" t="inlineStr"/>
       <c r="I716" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27953,12 +27953,12 @@
       <c r="H723" t="inlineStr"/>
       <c r="I723" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -28181,12 +28181,12 @@
       <c r="H729" t="inlineStr"/>
       <c r="I729" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28599,12 +28599,12 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28713,12 +28713,12 @@
       <c r="H743" t="inlineStr"/>
       <c r="I743" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J743" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28827,12 +28827,12 @@
       <c r="H746" t="inlineStr"/>
       <c r="I746" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29131,12 +29131,12 @@
       <c r="H754" t="inlineStr"/>
       <c r="I754" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29515,12 +29515,12 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29857,12 +29857,12 @@
       <c r="H773" t="inlineStr"/>
       <c r="I773" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30769,12 +30769,12 @@
       <c r="H797" t="inlineStr"/>
       <c r="I797" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30997,12 +30997,12 @@
       <c r="H803" t="inlineStr"/>
       <c r="I803" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J803" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31035,12 +31035,12 @@
       <c r="H804" t="inlineStr"/>
       <c r="I804" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J804" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31343,12 +31343,12 @@
       <c r="H812" t="inlineStr"/>
       <c r="I812" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31575,12 +31575,12 @@
       <c r="H818" t="inlineStr"/>
       <c r="I818" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31689,12 +31689,12 @@
       <c r="H821" t="inlineStr"/>
       <c r="I821" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31959,12 +31959,12 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32077,12 +32077,12 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32305,12 +32305,12 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32761,12 +32761,12 @@
       <c r="H849" t="inlineStr"/>
       <c r="I849" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32799,12 +32799,12 @@
       <c r="H850" t="inlineStr"/>
       <c r="I850" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -32989,12 +32989,12 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33065,12 +33065,12 @@
       <c r="H857" t="inlineStr"/>
       <c r="I857" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33255,12 +33255,12 @@
       <c r="H862" t="inlineStr"/>
       <c r="I862" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33369,12 +33369,12 @@
       <c r="H865" t="inlineStr"/>
       <c r="I865" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34129,12 +34129,12 @@
       <c r="H885" t="inlineStr"/>
       <c r="I885" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34205,12 +34205,12 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34471,12 +34471,12 @@
       <c r="H894" t="inlineStr"/>
       <c r="I894" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34661,12 +34661,12 @@
       <c r="H899" t="inlineStr"/>
       <c r="I899" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J899" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34737,12 +34737,12 @@
       <c r="H901" t="inlineStr"/>
       <c r="I901" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35729,12 +35729,12 @@
       <c r="H927" t="inlineStr"/>
       <c r="I927" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35767,12 +35767,12 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
